--- a/biology/Microbiologie/Clostridioides/Clostridioides.xlsx
+++ b/biology/Microbiologie/Clostridioides/Clostridioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Clostridioides est un genre bactérien regroupant des bacilles gram positifs strictement anaérobies et sporulés parmi lesquelles Clostridioides difficile, un agent pathogène humain responsable notamment de diarrhées nosocomiales chez les patients sous antibiothérapie.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Clostridioides comporte deux espèces :
 Clostridioides difficile qui peut être responsable de la colite pseudomembraneuse chez l'humain ;
